--- a/doc/ConfrontoStandardSimplified.xlsx
+++ b/doc/ConfrontoStandardSimplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\ProgettiGit\test-generator-for-yakindu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEED77F7-4918-4BF2-9A40-F707C77F25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D757A-009D-4811-9F44-E66AA9C6BE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CCEB9FC3-16CF-42E4-831B-2F8BA7A14B7C}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +443,7 @@
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,8 +480,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="4">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -496,8 +500,12 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="4">
+        <v>88</v>
+      </c>
+      <c r="H3" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -512,8 +520,12 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="4">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -528,8 +540,12 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="4">
+        <v>64</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -544,8 +560,12 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4">
+        <v>72</v>
+      </c>
+      <c r="H6" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -560,8 +580,12 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -576,8 +600,12 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -592,8 +620,12 @@
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="4">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -608,8 +640,12 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="4">
+        <v>96</v>
+      </c>
+      <c r="H10" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -624,8 +660,12 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="4">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -640,8 +680,12 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -656,8 +700,12 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -672,8 +720,12 @@
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -688,8 +740,12 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -704,8 +760,12 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -720,8 +780,12 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3">
+        <v>88</v>
+      </c>
+      <c r="H17" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -736,8 +800,12 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -752,8 +820,12 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3">
+        <v>64</v>
+      </c>
+      <c r="H19" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -768,8 +840,12 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -784,8 +860,12 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3">
+        <v>72</v>
+      </c>
+      <c r="H21" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -800,8 +880,12 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3">
+        <v>88</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -816,8 +900,12 @@
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3">
+        <v>72</v>
+      </c>
+      <c r="H23" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -832,8 +920,12 @@
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -848,8 +940,12 @@
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3">
+        <v>64</v>
+      </c>
+      <c r="H25" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -864,8 +960,12 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>72</v>
+      </c>
+      <c r="H26" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -880,8 +980,12 @@
       <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3">
+        <v>88</v>
+      </c>
+      <c r="H27" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -896,8 +1000,12 @@
       <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3">
+        <v>64</v>
+      </c>
+      <c r="H28" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -912,8 +1020,12 @@
       <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3">
+        <v>64</v>
+      </c>
+      <c r="H29" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -928,8 +1040,12 @@
       <c r="F30">
         <v>29</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3">
+        <v>96</v>
+      </c>
+      <c r="H30" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -944,8 +1060,12 @@
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -962,13 +1082,13 @@
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" t="e">
+      <c r="G32">
         <f>AVERAGE(G2:G31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" t="e">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H32">
         <f>AVERAGE(H2:H31)</f>
-        <v>#DIV/0!</v>
+        <v>80.266666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,13 +1106,13 @@
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G33">
         <f>STDEV(G2:G31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
+        <v>13.270657286946514</v>
+      </c>
+      <c r="H33">
         <f>STDEV(H2:H31)</f>
-        <v>#DIV/0!</v>
+        <v>13.117330819038301</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1012,11 +1132,11 @@
       </c>
       <c r="G34">
         <f>MIN(G2:G31)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <f>MIN(H2:H31)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1035,12 +1155,12 @@
         <v>6</v>
       </c>
       <c r="G35">
-        <f>MAX(G3:G31)</f>
-        <v>0</v>
+        <f>MAX(G2:G31)</f>
+        <v>100</v>
       </c>
       <c r="H35">
-        <f>MAX(H3:H31)</f>
-        <v>0</v>
+        <f>MAX(H2:H31)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
